--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1114,10 +1126,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1161,28 +1173,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1207,28 +1219,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1896,10 +1908,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1943,28 +1955,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1989,28 +2001,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2678,10 +2690,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2725,28 +2737,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2771,28 +2783,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3257,10 +3269,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3304,28 +3316,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3350,28 +3362,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3662,10 +3674,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3709,28 +3721,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3755,28 +3767,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3922,10 +3934,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3969,28 +3981,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4015,28 +4027,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4182,10 +4194,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4229,28 +4241,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4275,28 +4287,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4367,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
